--- a/Users Loads4.xlsx
+++ b/Users Loads4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D199"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1772876858336713</v>
+        <v>0.9497432384787393</v>
       </c>
       <c r="C2" t="n">
-        <v>6.615365802912257</v>
+        <v>4.406212554528985</v>
       </c>
       <c r="D2" t="n">
-        <v>0.108966310376937</v>
+        <v>0.1262685470184497</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3099582239886662</v>
+        <v>2.006742210165128</v>
       </c>
       <c r="C3" t="n">
-        <v>6.108676136144211</v>
+        <v>10.94647452891353</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6888833731823782</v>
+        <v>0.42334590180453</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4675504698270636</v>
+        <v>5.824144411011059</v>
       </c>
       <c r="C4" t="n">
-        <v>12.22393850932564</v>
+        <v>15.89989247702468</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4817797007735022</v>
+        <v>0.3024226609091551</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8443225890509595</v>
+        <v>6.941655893085017</v>
       </c>
       <c r="C5" t="n">
-        <v>5.369615773095513</v>
+        <v>7.126579041254271</v>
       </c>
       <c r="D5" t="n">
-        <v>0.327512236487261</v>
+        <v>0.2995493105908379</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.548995512651049</v>
+        <v>7.401690469480599</v>
       </c>
       <c r="C6" t="n">
-        <v>9.808135029051867</v>
+        <v>4.937555860119675</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3208660196538368</v>
+        <v>0.3068491789031979</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.978539982816525</v>
+        <v>8.134960850996267</v>
       </c>
       <c r="C7" t="n">
-        <v>3.653994540449748</v>
+        <v>7.699373548487888</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2795871447867536</v>
+        <v>0.3871410125757173</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.655660493470169</v>
+        <v>8.793363901048407</v>
       </c>
       <c r="C8" t="n">
-        <v>3.993961739122398</v>
+        <v>12.66585325615945</v>
       </c>
       <c r="D8" t="n">
-        <v>0.527967267404013</v>
+        <v>0.2700233538938458</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.755920754964384</v>
+        <v>9.150124110818361</v>
       </c>
       <c r="C9" t="n">
-        <v>5.361255011120221</v>
+        <v>4.165439163945665</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1564081127861035</v>
+        <v>0.2148424794957035</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.50269961622377</v>
+        <v>9.213151933360567</v>
       </c>
       <c r="C10" t="n">
-        <v>8.163641541999525</v>
+        <v>4.527736186150552</v>
       </c>
       <c r="D10" t="n">
-        <v>0.283069371695831</v>
+        <v>0.1161004644740708</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.705913805155115</v>
+        <v>9.496974778314353</v>
       </c>
       <c r="C11" t="n">
-        <v>3.487532760280102</v>
+        <v>8.24703699103074</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2021635591869703</v>
+        <v>0.1906224519812807</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.687229511152573</v>
+        <v>9.514921287815945</v>
       </c>
       <c r="C12" t="n">
-        <v>9.487504696475799</v>
+        <v>9.475062588831847</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2612421938776396</v>
+        <v>0.3021561353788734</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.761869142596526</v>
+        <v>10.06700988998917</v>
       </c>
       <c r="C13" t="n">
-        <v>6.683492885107347</v>
+        <v>6.954136492733232</v>
       </c>
       <c r="D13" t="n">
-        <v>0.158241102093833</v>
+        <v>0.4344504768518804</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.782068792447957</v>
+        <v>10.80224223124096</v>
       </c>
       <c r="C14" t="n">
-        <v>4.823168248339124</v>
+        <v>9.880799634368287</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2712026328068436</v>
+        <v>0.5080995316662884</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.025988655468838</v>
+        <v>13.67704252083362</v>
       </c>
       <c r="C15" t="n">
-        <v>7.90841340504067</v>
+        <v>5.371561070188952</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3474142244109172</v>
+        <v>0.1017102659454308</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.212104214619773</v>
+        <v>15.30662193683078</v>
       </c>
       <c r="C16" t="n">
-        <v>7.499070423551357</v>
+        <v>5.882545903783341</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2405818605700591</v>
+        <v>0.2625834825692268</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.267516854709656</v>
+        <v>16.27047400993934</v>
       </c>
       <c r="C17" t="n">
-        <v>9.203531669578839</v>
+        <v>6.200796458586223</v>
       </c>
       <c r="D17" t="n">
-        <v>0.504682656313177</v>
+        <v>0.1185634496444487</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.754935867455628</v>
+        <v>16.4051642111848</v>
       </c>
       <c r="C18" t="n">
-        <v>6.215529288590962</v>
+        <v>6.995983651139425</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5365898453037449</v>
+        <v>0.2069832177294856</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.916148348612596</v>
+        <v>18.24912561758103</v>
       </c>
       <c r="C19" t="n">
-        <v>7.053799086797565</v>
+        <v>9.012407136259606</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3645543645615389</v>
+        <v>0.4208798040577853</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7.372083300372153</v>
+        <v>18.33578216070983</v>
       </c>
       <c r="C20" t="n">
-        <v>9.257096701145404</v>
+        <v>3.932066097288531</v>
       </c>
       <c r="D20" t="n">
-        <v>0.291612967099817</v>
+        <v>0.5501248711966447</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8.098095286325535</v>
+        <v>19.55566512299108</v>
       </c>
       <c r="C21" t="n">
-        <v>4.961938467574853</v>
+        <v>3.921383432489759</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5589184578414121</v>
+        <v>0.09200639346290072</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>8.590824986877143</v>
+        <v>19.94939195038462</v>
       </c>
       <c r="C22" t="n">
-        <v>3.163396496312592</v>
+        <v>2.079367544411466</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1956002341168447</v>
+        <v>0.1048896474988437</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>10.1095473676261</v>
+        <v>20.20956410232392</v>
       </c>
       <c r="C23" t="n">
-        <v>1.856242483621493</v>
+        <v>5.57573583554082</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2652952597926989</v>
+        <v>0.4561210645645369</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>10.32968581080626</v>
+        <v>20.60474592748175</v>
       </c>
       <c r="C24" t="n">
-        <v>5.443442963889808</v>
+        <v>9.550629398015101</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2841349730496673</v>
+        <v>0.4936335744195279</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>10.42417067572262</v>
+        <v>22.54399582888421</v>
       </c>
       <c r="C25" t="n">
-        <v>8.110367574734685</v>
+        <v>11.06191728268162</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3886795395263716</v>
+        <v>0.3376863045678565</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>10.73635083807814</v>
+        <v>23.08171024881651</v>
       </c>
       <c r="C26" t="n">
-        <v>2.096321841915282</v>
+        <v>5.444482929380852</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3623985238214134</v>
+        <v>0.2114254389268063</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.07309144357092</v>
+        <v>23.46185545661939</v>
       </c>
       <c r="C27" t="n">
-        <v>4.855041883521604</v>
+        <v>5.153554415807506</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2693139444213387</v>
+        <v>0.1063075585099136</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12.35906632771821</v>
+        <v>23.56794815382402</v>
       </c>
       <c r="C28" t="n">
-        <v>3.583421459585673</v>
+        <v>7.813516142695596</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2994478926778986</v>
+        <v>0.3969493445701849</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>13.24001086185558</v>
+        <v>23.59661597367305</v>
       </c>
       <c r="C29" t="n">
-        <v>6.122726559598306</v>
+        <v>6.020036216808277</v>
       </c>
       <c r="D29" t="n">
-        <v>0.277666020981676</v>
+        <v>0.4908589803864204</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>13.53370747814429</v>
+        <v>24.08486440677319</v>
       </c>
       <c r="C30" t="n">
-        <v>6.569497011833954</v>
+        <v>5.105671890920275</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3253478994634696</v>
+        <v>0.5031846797043709</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>13.64987438931177</v>
+        <v>24.21158714487613</v>
       </c>
       <c r="C31" t="n">
-        <v>4.596274720284565</v>
+        <v>9.039984584832697</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1283542719096611</v>
+        <v>0.5135854693003613</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>14.35335568196053</v>
+        <v>24.53217722673799</v>
       </c>
       <c r="C32" t="n">
-        <v>3.340250034414</v>
+        <v>6.919033848682913</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2839138479458808</v>
+        <v>0.2673290636613517</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>14.61318903910894</v>
+        <v>25.30867477322166</v>
       </c>
       <c r="C33" t="n">
-        <v>4.029269464291752</v>
+        <v>1.510907851984085</v>
       </c>
       <c r="D33" t="n">
-        <v>0.232183716888672</v>
+        <v>0.2135448588160513</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>14.72464419327151</v>
+        <v>26.15873404494839</v>
       </c>
       <c r="C34" t="n">
-        <v>9.246444280134376</v>
+        <v>4.45424003940604</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3520795668558004</v>
+        <v>0.1925154535594825</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>14.77909212389253</v>
+        <v>26.50479714464039</v>
       </c>
       <c r="C35" t="n">
-        <v>9.146421046831122</v>
+        <v>5.73909207530566</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4513256916619656</v>
+        <v>0.3530418102253591</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15.2239443134757</v>
+        <v>28.4327418384814</v>
       </c>
       <c r="C36" t="n">
-        <v>6.099804289802938</v>
+        <v>6.36293689162101</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4232932546726202</v>
+        <v>0.3334745073813145</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15.29898889500772</v>
+        <v>30.07751819006487</v>
       </c>
       <c r="C37" t="n">
-        <v>6.502695472934056</v>
+        <v>10.85399222093135</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4516009020042591</v>
+        <v>0.4740757176256638</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>16.30178855049078</v>
+        <v>30.36497693254498</v>
       </c>
       <c r="C38" t="n">
-        <v>2.934723283163512</v>
+        <v>7.397211180588752</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1665838405949605</v>
+        <v>0.4095424459017108</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>16.73180784021634</v>
+        <v>31.88990877523297</v>
       </c>
       <c r="C39" t="n">
-        <v>8.74812577771322</v>
+        <v>2.978183994725188</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3121278766668569</v>
+        <v>0.1973113979047682</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>17.31393884134894</v>
+        <v>33.76052365622983</v>
       </c>
       <c r="C40" t="n">
-        <v>4.808064966259801</v>
+        <v>6.582067660074172</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6523747746568312</v>
+        <v>0.3328803198056772</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>17.45656776386112</v>
+        <v>34.20023602602694</v>
       </c>
       <c r="C41" t="n">
-        <v>3.763240089032181</v>
+        <v>7.770828088918719</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2221692792646588</v>
+        <v>0.2416087042362873</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>18.00200638746536</v>
+        <v>34.79538027683371</v>
       </c>
       <c r="C42" t="n">
-        <v>5.737354253366706</v>
+        <v>11.1706645271446</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4000953070913939</v>
+        <v>0.3507749146918211</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>18.32401531586466</v>
+        <v>35.2340628384114</v>
       </c>
       <c r="C43" t="n">
-        <v>4.164898754492635</v>
+        <v>4.589236571190188</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2777385424416747</v>
+        <v>0.3223243717671194</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>18.34439778247713</v>
+        <v>36.33733841506815</v>
       </c>
       <c r="C44" t="n">
-        <v>5.322234373724336</v>
+        <v>2.364848395120346</v>
       </c>
       <c r="D44" t="n">
-        <v>0.295611561663967</v>
+        <v>0.1483764120152883</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>18.41892698724363</v>
+        <v>37.26613985866882</v>
       </c>
       <c r="C45" t="n">
-        <v>10.59055740370806</v>
+        <v>7.086270085841038</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2596311990939906</v>
+        <v>0.2601553132875883</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>19.07894710066135</v>
+        <v>37.41162376381817</v>
       </c>
       <c r="C46" t="n">
-        <v>6.693262966951702</v>
+        <v>4.587577363351568</v>
       </c>
       <c r="D46" t="n">
-        <v>0.382141884974852</v>
+        <v>0.136259410009009</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20.25889082209601</v>
+        <v>39.36038224200007</v>
       </c>
       <c r="C47" t="n">
-        <v>6.731661387904111</v>
+        <v>2.849411519081459</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3176916498496426</v>
+        <v>0.2957451778810266</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20.27010107058119</v>
+        <v>39.76747227485179</v>
       </c>
       <c r="C48" t="n">
-        <v>7.899674529747999</v>
+        <v>7.352368900287756</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3962585506186994</v>
+        <v>0.3883679365579034</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20.58519941704959</v>
+        <v>41.2909139582196</v>
       </c>
       <c r="C49" t="n">
-        <v>6.55836453364686</v>
+        <v>4.984067738393301</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4559081071124108</v>
+        <v>0.09522910546287219</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20.91778348782117</v>
+        <v>42.06246460741997</v>
       </c>
       <c r="C50" t="n">
-        <v>6.017846352184856</v>
+        <v>5.311249832049767</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3771043932608624</v>
+        <v>0.6539479947785017</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>21.6670343628604</v>
+        <v>42.37694699469591</v>
       </c>
       <c r="C51" t="n">
-        <v>4.592215177406741</v>
+        <v>5.0013632563145</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3510261335999484</v>
+        <v>0.1537200179773759</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>21.85186297951279</v>
+        <v>42.56568700846989</v>
       </c>
       <c r="C52" t="n">
-        <v>4.663684512307555</v>
+        <v>10.19102154526366</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1399537869742867</v>
+        <v>0.3091221855655232</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>22.84119429814631</v>
+        <v>45.5644688249553</v>
       </c>
       <c r="C53" t="n">
-        <v>8.398985141077805</v>
+        <v>8.346736985279334</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3623417588809303</v>
+        <v>0.5349064932960902</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>23.11439662666382</v>
+        <v>46.03626412564625</v>
       </c>
       <c r="C54" t="n">
-        <v>9.675295959745336</v>
+        <v>2.269836610276086</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4444535299912279</v>
+        <v>0.2199584691976496</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>23.3129397808081</v>
+        <v>48.46008549983038</v>
       </c>
       <c r="C55" t="n">
-        <v>3.521358952655389</v>
+        <v>5.892242002730411</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1019177653717759</v>
+        <v>0.4453711372575284</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>23.40455576912779</v>
+        <v>48.76125799583135</v>
       </c>
       <c r="C56" t="n">
-        <v>13.34075760155546</v>
+        <v>13.1837349191058</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3423762300963893</v>
+        <v>0.422047377096507</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>23.46179246101287</v>
+        <v>48.86304895909645</v>
       </c>
       <c r="C57" t="n">
-        <v>7.232551652335636</v>
+        <v>8.534226522074137</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1899335414124809</v>
+        <v>0.2199306724591422</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>24.00276543071511</v>
+        <v>49.21727519351838</v>
       </c>
       <c r="C58" t="n">
-        <v>5.340520560497469</v>
+        <v>9.25797468470711</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1251739423048635</v>
+        <v>0.3798415203599836</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>24.61279123157172</v>
+        <v>51.87900741303998</v>
       </c>
       <c r="C59" t="n">
-        <v>2.908476326938572</v>
+        <v>10.5324314393758</v>
       </c>
       <c r="D59" t="n">
-        <v>0.2046743495426247</v>
+        <v>0.4386781161912156</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>25.44915109263232</v>
+        <v>52.26596256194324</v>
       </c>
       <c r="C60" t="n">
-        <v>7.860784318586621</v>
+        <v>6.84145192584494</v>
       </c>
       <c r="D60" t="n">
-        <v>0.205227878005177</v>
+        <v>0.3746779021645445</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>26.00194017302224</v>
+        <v>53.16912541843656</v>
       </c>
       <c r="C61" t="n">
-        <v>4.256686488718509</v>
+        <v>6.257914036715214</v>
       </c>
       <c r="D61" t="n">
-        <v>0.2368520650341898</v>
+        <v>0.1632443619454472</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>26.31362420478592</v>
+        <v>54.31812835629209</v>
       </c>
       <c r="C62" t="n">
-        <v>10.71609940840553</v>
+        <v>6.693559778939924</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3782560293254354</v>
+        <v>0.216759755747651</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>26.73852655987341</v>
+        <v>54.34183319124687</v>
       </c>
       <c r="C63" t="n">
-        <v>8.627880825365271</v>
+        <v>12.04297975529178</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3710758265187091</v>
+        <v>0.3472709121750542</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>27.61161572659477</v>
+        <v>54.40255512981897</v>
       </c>
       <c r="C64" t="n">
-        <v>3.294102285799871</v>
+        <v>4.417289303138825</v>
       </c>
       <c r="D64" t="n">
-        <v>0.2386735189914317</v>
+        <v>0.323408680535254</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>28.05960153599813</v>
+        <v>55.04184435502575</v>
       </c>
       <c r="C65" t="n">
-        <v>5.258214072545027</v>
+        <v>5.326847656776458</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2077941445178342</v>
+        <v>0.3504312216195917</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>28.43653082142026</v>
+        <v>55.63974622843042</v>
       </c>
       <c r="C66" t="n">
-        <v>4.343578691528243</v>
+        <v>7.65026648154717</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1677442283025051</v>
+        <v>0.5093592982627149</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>28.98409636950104</v>
+        <v>55.93092357757922</v>
       </c>
       <c r="C67" t="n">
-        <v>6.781865277025637</v>
+        <v>4.741038613802986</v>
       </c>
       <c r="D67" t="n">
-        <v>0.09043548065205755</v>
+        <v>0.1583671516828835</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>29.25335694498204</v>
+        <v>57.03237277649431</v>
       </c>
       <c r="C68" t="n">
-        <v>7.698807355859431</v>
+        <v>4.961961063898385</v>
       </c>
       <c r="D68" t="n">
-        <v>0.2845389295791549</v>
+        <v>0.2717557801731613</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>30.2629203870573</v>
+        <v>57.9179272458096</v>
       </c>
       <c r="C69" t="n">
-        <v>5.007070524581107</v>
+        <v>8.701672709920324</v>
       </c>
       <c r="D69" t="n">
-        <v>0.251079580556744</v>
+        <v>0.2382041211234967</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1407,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>30.57313346851547</v>
+        <v>58.59929719213119</v>
       </c>
       <c r="C70" t="n">
-        <v>3.68266037780667</v>
+        <v>6.274779636136032</v>
       </c>
       <c r="D70" t="n">
-        <v>0.139931019448711</v>
+        <v>0.3631073738773908</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1421,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>31.16438546987412</v>
+        <v>58.81163509345001</v>
       </c>
       <c r="C71" t="n">
-        <v>4.856418670081529</v>
+        <v>6.418093660078527</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4312257555349669</v>
+        <v>0.4892895126342972</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1435,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>31.58565062744519</v>
+        <v>58.85525195482327</v>
       </c>
       <c r="C72" t="n">
-        <v>10.12402107203769</v>
+        <v>7.110410318693146</v>
       </c>
       <c r="D72" t="n">
-        <v>0.23686792241291</v>
+        <v>0.4754258957670639</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>31.79319465493857</v>
+        <v>60.28889479146048</v>
       </c>
       <c r="C73" t="n">
-        <v>6.209499106679502</v>
+        <v>8.806940451126565</v>
       </c>
       <c r="D73" t="n">
-        <v>0.2292422514286264</v>
+        <v>0.2227785378261696</v>
       </c>
     </row>
     <row r="74">
@@ -1463,13 +1463,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>32.95590276457751</v>
+        <v>60.35835731061623</v>
       </c>
       <c r="C74" t="n">
-        <v>3.502004526315798</v>
+        <v>6.374762732303235</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5669039909217715</v>
+        <v>0.348740255788316</v>
       </c>
     </row>
     <row r="75">
@@ -1477,13 +1477,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>33.92070049563086</v>
+        <v>60.69639003167512</v>
       </c>
       <c r="C75" t="n">
-        <v>2.4467492039032</v>
+        <v>6.577141241789268</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3082421344640615</v>
+        <v>0.3257967540267973</v>
       </c>
     </row>
     <row r="76">
@@ -1491,13 +1491,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>34.25046357955367</v>
+        <v>60.85669788910176</v>
       </c>
       <c r="C76" t="n">
-        <v>7.32441046437828</v>
+        <v>6.157416780960748</v>
       </c>
       <c r="D76" t="n">
-        <v>0.2560978040212707</v>
+        <v>0.3464799463338609</v>
       </c>
     </row>
     <row r="77">
@@ -1505,13 +1505,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>34.48009036034061</v>
+        <v>62.92778852342776</v>
       </c>
       <c r="C77" t="n">
-        <v>5.394374196561156</v>
+        <v>6.481743488056492</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1013130990553024</v>
+        <v>0.3041793996933464</v>
       </c>
     </row>
     <row r="78">
@@ -1519,13 +1519,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>35.71026595532388</v>
+        <v>63.41923230296997</v>
       </c>
       <c r="C78" t="n">
-        <v>8.47909345445057</v>
+        <v>5.382720788923428</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3961983143239252</v>
+        <v>0.3156774735577439</v>
       </c>
     </row>
     <row r="79">
@@ -1533,13 +1533,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>36.66100299212837</v>
+        <v>63.53432997392654</v>
       </c>
       <c r="C79" t="n">
-        <v>8.483766980250758</v>
+        <v>4.657808007362303</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3491013419060792</v>
+        <v>0.2359566177366681</v>
       </c>
     </row>
     <row r="80">
@@ -1547,13 +1547,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>36.73175679584165</v>
+        <v>63.72614474157994</v>
       </c>
       <c r="C80" t="n">
-        <v>9.662172594708819</v>
+        <v>9.161942863676853</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3274541223073791</v>
+        <v>0.1921902275969246</v>
       </c>
     </row>
     <row r="81">
@@ -1561,13 +1561,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>37.17732593616167</v>
+        <v>65.55263856524715</v>
       </c>
       <c r="C81" t="n">
-        <v>6.673715796300546</v>
+        <v>4.733969736221897</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4441684034612894</v>
+        <v>0.1365844176850786</v>
       </c>
     </row>
     <row r="82">
@@ -1575,13 +1575,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>37.26083061161883</v>
+        <v>65.8132521019388</v>
       </c>
       <c r="C82" t="n">
-        <v>5.873899956211037</v>
+        <v>13.5667563958348</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2401886454996655</v>
+        <v>0.4178519209871384</v>
       </c>
     </row>
     <row r="83">
@@ -1589,13 +1589,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>38.05880366610947</v>
+        <v>67.51664072896247</v>
       </c>
       <c r="C83" t="n">
-        <v>8.11065009155228</v>
+        <v>4.954025728340882</v>
       </c>
       <c r="D83" t="n">
-        <v>0.265072560810784</v>
+        <v>0.1489645526902492</v>
       </c>
     </row>
     <row r="84">
@@ -1603,13 +1603,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>38.11587204056154</v>
+        <v>67.65652191252383</v>
       </c>
       <c r="C84" t="n">
-        <v>4.507679072095871</v>
+        <v>6.087524382315092</v>
       </c>
       <c r="D84" t="n">
-        <v>0.2239269915643368</v>
+        <v>0.5263080972920794</v>
       </c>
     </row>
     <row r="85">
@@ -1617,13 +1617,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>38.37754401876531</v>
+        <v>68.64057567331857</v>
       </c>
       <c r="C85" t="n">
-        <v>9.65642130191441</v>
+        <v>8.199099356577458</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3262929875352383</v>
+        <v>0.3708296612652243</v>
       </c>
     </row>
     <row r="86">
@@ -1631,13 +1631,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>38.9051531747835</v>
+        <v>69.98528915484619</v>
       </c>
       <c r="C86" t="n">
-        <v>7.630878048192291</v>
+        <v>5.195404027140418</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2996238918937736</v>
+        <v>0.2913945642147975</v>
       </c>
     </row>
     <row r="87">
@@ -1645,13 +1645,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>39.71591794478635</v>
+        <v>70.73314296038798</v>
       </c>
       <c r="C87" t="n">
-        <v>4.381102667920097</v>
+        <v>1.704085058130936</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1296466474754181</v>
+        <v>0.1939856602067997</v>
       </c>
     </row>
     <row r="88">
@@ -1659,13 +1659,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>40.03620304809473</v>
+        <v>71.28627362525842</v>
       </c>
       <c r="C88" t="n">
-        <v>11.81317625623119</v>
+        <v>2.157524127314229</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4135068302741248</v>
+        <v>0.1805058714462981</v>
       </c>
     </row>
     <row r="89">
@@ -1673,13 +1673,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>40.18483976032799</v>
+        <v>72.26208982293609</v>
       </c>
       <c r="C89" t="n">
-        <v>4.201355345643975</v>
+        <v>9.302230777972714</v>
       </c>
       <c r="D89" t="n">
-        <v>0.185615640178627</v>
+        <v>0.366192883114479</v>
       </c>
     </row>
     <row r="90">
@@ -1687,13 +1687,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>41.08231711701386</v>
+        <v>74.38579142553378</v>
       </c>
       <c r="C90" t="n">
-        <v>7.727923442620529</v>
+        <v>7.910985816013307</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2379303589097519</v>
+        <v>0.2073619725713071</v>
       </c>
     </row>
     <row r="91">
@@ -1701,13 +1701,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>41.38946013602195</v>
+        <v>74.49954173187548</v>
       </c>
       <c r="C91" t="n">
-        <v>6.669142131802026</v>
+        <v>9.079234664371011</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3753849621091403</v>
+        <v>0.3134618515868292</v>
       </c>
     </row>
     <row r="92">
@@ -1715,13 +1715,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>43.11849966315238</v>
+        <v>74.56463467532414</v>
       </c>
       <c r="C92" t="n">
-        <v>2.476924722268134</v>
+        <v>4.405072729066817</v>
       </c>
       <c r="D92" t="n">
-        <v>0.254712805584366</v>
+        <v>0.2654774176308847</v>
       </c>
     </row>
     <row r="93">
@@ -1729,13 +1729,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>44.9823311146862</v>
+        <v>74.72230022146019</v>
       </c>
       <c r="C93" t="n">
-        <v>3.517824348155161</v>
+        <v>3.332415652968754</v>
       </c>
       <c r="D93" t="n">
-        <v>0.3015345333225156</v>
+        <v>0.1009712718331721</v>
       </c>
     </row>
     <row r="94">
@@ -1743,13 +1743,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>45.68280542610547</v>
+        <v>75.59894516643935</v>
       </c>
       <c r="C94" t="n">
-        <v>7.751341001056038</v>
+        <v>7.815599393841206</v>
       </c>
       <c r="D94" t="n">
-        <v>0.311268459199565</v>
+        <v>0.3445893220534988</v>
       </c>
     </row>
     <row r="95">
@@ -1757,13 +1757,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>45.87207961730408</v>
+        <v>75.78648485691564</v>
       </c>
       <c r="C95" t="n">
-        <v>9.637312572455306</v>
+        <v>3.8717871881152</v>
       </c>
       <c r="D95" t="n">
-        <v>0.4212416446659934</v>
+        <v>0.1958140910853268</v>
       </c>
     </row>
     <row r="96">
@@ -1771,13 +1771,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>47.03812469423277</v>
+        <v>78.35002038558824</v>
       </c>
       <c r="C96" t="n">
-        <v>5.29376873715186</v>
+        <v>6.512506647017352</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1734181800431127</v>
+        <v>0.4757416862464551</v>
       </c>
     </row>
     <row r="97">
@@ -1785,13 +1785,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>48.23806371521537</v>
+        <v>78.90726720460884</v>
       </c>
       <c r="C97" t="n">
-        <v>9.634072939503925</v>
+        <v>11.15670878163955</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4291087342936492</v>
+        <v>0.5435350457951199</v>
       </c>
     </row>
     <row r="98">
@@ -1799,13 +1799,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>48.86675421417575</v>
+        <v>79.47553651757602</v>
       </c>
       <c r="C98" t="n">
-        <v>7.876952028181384</v>
+        <v>7.649229327470235</v>
       </c>
       <c r="D98" t="n">
-        <v>0.2942698170998122</v>
+        <v>0.2744495740745077</v>
       </c>
     </row>
     <row r="99">
@@ -1813,13 +1813,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>49.54022783426365</v>
+        <v>80.42366383184806</v>
       </c>
       <c r="C99" t="n">
-        <v>8.179689252075606</v>
+        <v>5.261954160742994</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3226285000522366</v>
+        <v>0.1173403361957506</v>
       </c>
     </row>
     <row r="100">
@@ -1827,13 +1827,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>49.6359716026955</v>
+        <v>80.63815567754834</v>
       </c>
       <c r="C100" t="n">
-        <v>7.479299035939444</v>
+        <v>8.423708889821283</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3003603042892405</v>
+        <v>0.3135303348487672</v>
       </c>
     </row>
     <row r="101">
@@ -1841,13 +1841,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>50.71046493521618</v>
+        <v>80.78730156877079</v>
       </c>
       <c r="C101" t="n">
-        <v>1.88193643683023</v>
+        <v>9.941490427409335</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3819979914583754</v>
+        <v>0.5018979663074157</v>
       </c>
     </row>
     <row r="102">
@@ -1855,13 +1855,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>51.9503200241793</v>
+        <v>81.55285357544845</v>
       </c>
       <c r="C102" t="n">
-        <v>4.88843594430251</v>
+        <v>4.516556692627162</v>
       </c>
       <c r="D102" t="n">
-        <v>0.257516971078515</v>
+        <v>0.2917594821654589</v>
       </c>
     </row>
     <row r="103">
@@ -1869,13 +1869,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>52.1388323829158</v>
+        <v>85.64312342001773</v>
       </c>
       <c r="C103" t="n">
-        <v>4.061125693362711</v>
+        <v>8.557655874218547</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1613268541717272</v>
+        <v>0.3585717413823356</v>
       </c>
     </row>
     <row r="104">
@@ -1883,13 +1883,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>52.34277829673337</v>
+        <v>91.06894409081842</v>
       </c>
       <c r="C104" t="n">
-        <v>5.605165736144112</v>
+        <v>2.195084033866081</v>
       </c>
       <c r="D104" t="n">
-        <v>0.2398010796544957</v>
+        <v>0.2448683109689938</v>
       </c>
     </row>
     <row r="105">
@@ -1897,13 +1897,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>52.46132626272016</v>
+        <v>91.98002275624603</v>
       </c>
       <c r="C105" t="n">
-        <v>7.584144227419854</v>
+        <v>2.482969858674458</v>
       </c>
       <c r="D105" t="n">
-        <v>0.584567426968534</v>
+        <v>0.2636190631110696</v>
       </c>
     </row>
     <row r="106">
@@ -1911,13 +1911,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>53.40584626950572</v>
+        <v>92.46393138046005</v>
       </c>
       <c r="C106" t="n">
-        <v>5.059069375954172</v>
+        <v>6.363135634144554</v>
       </c>
       <c r="D106" t="n">
-        <v>0.2517970376449507</v>
+        <v>0.3553101475063976</v>
       </c>
     </row>
     <row r="107">
@@ -1925,13 +1925,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>53.65962101858899</v>
+        <v>92.55706563068368</v>
       </c>
       <c r="C107" t="n">
-        <v>5.733249275239356</v>
+        <v>5.541199946678708</v>
       </c>
       <c r="D107" t="n">
-        <v>0.2657192126048226</v>
+        <v>0.2704427202990544</v>
       </c>
     </row>
     <row r="108">
@@ -1939,13 +1939,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>54.20875889730529</v>
+        <v>92.75641866058585</v>
       </c>
       <c r="C108" t="n">
-        <v>5.613034192268601</v>
+        <v>7.581681835915246</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3269768254361327</v>
+        <v>0.4458143627624788</v>
       </c>
     </row>
     <row r="109">
@@ -1953,13 +1953,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>54.27257197193455</v>
+        <v>93.38949690415447</v>
       </c>
       <c r="C109" t="n">
-        <v>9.403239403567833</v>
+        <v>9.268307753606784</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5125120741287481</v>
+        <v>0.3365169201434282</v>
       </c>
     </row>
     <row r="110">
@@ -1967,13 +1967,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>54.97080027458026</v>
+        <v>93.74536613771497</v>
       </c>
       <c r="C110" t="n">
-        <v>3.198720062703826</v>
+        <v>2.283139483884401</v>
       </c>
       <c r="D110" t="n">
-        <v>0.2017279205085389</v>
+        <v>0.2539150160057339</v>
       </c>
     </row>
     <row r="111">
@@ -1981,13 +1981,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>55.01723874340322</v>
+        <v>93.95993262679761</v>
       </c>
       <c r="C111" t="n">
-        <v>2.341252875410902</v>
+        <v>7.752302262831067</v>
       </c>
       <c r="D111" t="n">
-        <v>0.2315168706449998</v>
+        <v>0.1409726190707885</v>
       </c>
     </row>
     <row r="112">
@@ -1995,13 +1995,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>55.77824052062752</v>
+        <v>96.38617729022891</v>
       </c>
       <c r="C112" t="n">
-        <v>6.430847006273482</v>
+        <v>9.394917319618205</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6461152590442558</v>
+        <v>0.4003089385750403</v>
       </c>
     </row>
     <row r="113">
@@ -2009,1217 +2009,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>55.88642092170973</v>
+        <v>98.06331729784912</v>
       </c>
       <c r="C113" t="n">
-        <v>3.364067777453703</v>
+        <v>6.491944370726763</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1669640600794087</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>57.04238775251378</v>
-      </c>
-      <c r="C114" t="n">
-        <v>5.727569485525101</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.2628157348245099</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>58.43531221124511</v>
-      </c>
-      <c r="C115" t="n">
-        <v>10.18827555685994</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.3679582982549819</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>60.25456699717824</v>
-      </c>
-      <c r="C116" t="n">
-        <v>7.876225288651375</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.390128710060733</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>61.38306063136191</v>
-      </c>
-      <c r="C117" t="n">
-        <v>5.392969573753584</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.5476693520134168</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>61.5854878816545</v>
-      </c>
-      <c r="C118" t="n">
-        <v>8.387088970701999</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.1340566163760954</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>62.50495012410982</v>
-      </c>
-      <c r="C119" t="n">
-        <v>6.588499020659436</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.440188032214107</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>62.63508644456338</v>
-      </c>
-      <c r="C120" t="n">
-        <v>8.090539966905322</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.334431402922877</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>64.14069732895432</v>
-      </c>
-      <c r="C121" t="n">
-        <v>7.433857302444474</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.2813432481385857</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>64.3238175893816</v>
-      </c>
-      <c r="C122" t="n">
-        <v>9.700695666139648</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.3369276785574585</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>64.7234786317549</v>
-      </c>
-      <c r="C123" t="n">
-        <v>3.192502785869812</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.190882823423793</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>64.78167917926207</v>
-      </c>
-      <c r="C124" t="n">
-        <v>5.62782991085803</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.1878485740252985</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>65.78184432662184</v>
-      </c>
-      <c r="C125" t="n">
-        <v>7.745521530064239</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.4245490990722804</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>65.81873916417341</v>
-      </c>
-      <c r="C126" t="n">
-        <v>7.566920879991593</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.1679129245303871</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>65.87096229148084</v>
-      </c>
-      <c r="C127" t="n">
-        <v>6.431771099686519</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.341278535387188</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>65.93698273575676</v>
-      </c>
-      <c r="C128" t="n">
-        <v>5.043389472319496</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.07436701096812789</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>65.94258581447401</v>
-      </c>
-      <c r="C129" t="n">
-        <v>10.69912045808717</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.1713297322959779</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>66.34547247943776</v>
-      </c>
-      <c r="C130" t="n">
-        <v>7.212467366939734</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.4433993733093155</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>67.262044073947</v>
-      </c>
-      <c r="C131" t="n">
-        <v>9.123894897391592</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.3341840981059948</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>67.51959333018296</v>
-      </c>
-      <c r="C132" t="n">
-        <v>3.342766415476748</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.2257408111936036</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>67.92897644351217</v>
-      </c>
-      <c r="C133" t="n">
-        <v>7.98720720573211</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.2984984800422533</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>68.22565969055019</v>
-      </c>
-      <c r="C134" t="n">
-        <v>1.648791213597215</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.2279349600454025</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>68.74701154471924</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1.634935798883828</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.186142425657831</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>69.05150321304242</v>
-      </c>
-      <c r="C136" t="n">
-        <v>8.086493419294367</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.3940370900525445</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>70.40577515095192</v>
-      </c>
-      <c r="C137" t="n">
-        <v>7.140354398402416</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.2256745798920768</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>70.78322027264466</v>
-      </c>
-      <c r="C138" t="n">
-        <v>10.34367511605236</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.3714906927124424</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>71.12959075860786</v>
-      </c>
-      <c r="C139" t="n">
-        <v>5.517244774512141</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.4939407634532013</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>72.78474025226558</v>
-      </c>
-      <c r="C140" t="n">
-        <v>6.842579727629053</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.155355565115452</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>72.92277867739459</v>
-      </c>
-      <c r="C141" t="n">
-        <v>6.009084102150665</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.6460545101488894</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>73.71349471939055</v>
-      </c>
-      <c r="C142" t="n">
-        <v>5.009380202329871</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.1139935649518594</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>74.09413887815556</v>
-      </c>
-      <c r="C143" t="n">
-        <v>3.081380179920244</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0.1871473934118737</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>74.68918347811329</v>
-      </c>
-      <c r="C144" t="n">
-        <v>3.918844656953958</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0.3447732374636418</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>74.71579882097097</v>
-      </c>
-      <c r="C145" t="n">
-        <v>10.98887058447332</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.4441660108339237</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>75.55358306384095</v>
-      </c>
-      <c r="C146" t="n">
-        <v>9.140548523228141</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.4055367961055664</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>75.76845158096441</v>
-      </c>
-      <c r="C147" t="n">
-        <v>8.423442309224708</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.404029614306084</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>76.90680563302124</v>
-      </c>
-      <c r="C148" t="n">
-        <v>12.76932342344974</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0.3778367319464583</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>77.42540517088311</v>
-      </c>
-      <c r="C149" t="n">
-        <v>6.985666947437294</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0.4675798689241754</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>77.85336210721979</v>
-      </c>
-      <c r="C150" t="n">
-        <v>11.05594964272871</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0.2198217187701566</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>81.58884595821063</v>
-      </c>
-      <c r="C151" t="n">
-        <v>5.303967064305989</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0.4064738820831827</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>81.83053952527688</v>
-      </c>
-      <c r="C152" t="n">
-        <v>8.637764095444705</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0.3427236536336543</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>81.85222296729863</v>
-      </c>
-      <c r="C153" t="n">
-        <v>8.878549212844803</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0.2923383740583291</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>81.89465981196273</v>
-      </c>
-      <c r="C154" t="n">
-        <v>9.610581149782016</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0.3455317754347469</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>81.96438270918051</v>
-      </c>
-      <c r="C155" t="n">
-        <v>8.980438114868841</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0.3757057186347245</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>82.15227390313814</v>
-      </c>
-      <c r="C156" t="n">
-        <v>4.881833497888193</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0.1267193765940839</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>82.31430589005174</v>
-      </c>
-      <c r="C157" t="n">
-        <v>5.922560270233321</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0.5807365108898007</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>82.56826756009136</v>
-      </c>
-      <c r="C158" t="n">
-        <v>4.554221911581401</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0.216746315073333</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>83.34260730247705</v>
-      </c>
-      <c r="C159" t="n">
-        <v>10.8029416401877</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0.4061473213005452</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>84.15348775413442</v>
-      </c>
-      <c r="C160" t="n">
-        <v>9.562941415225795</v>
-      </c>
-      <c r="D160" t="n">
-        <v>0.3518499146851944</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>84.28082000939085</v>
-      </c>
-      <c r="C161" t="n">
-        <v>9.049977257461606</v>
-      </c>
-      <c r="D161" t="n">
-        <v>0.4243023414960094</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>84.4595714721242</v>
-      </c>
-      <c r="C162" t="n">
-        <v>7.147549628544474</v>
-      </c>
-      <c r="D162" t="n">
-        <v>0.2240678847868906</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>84.64024206422143</v>
-      </c>
-      <c r="C163" t="n">
-        <v>11.32313920890243</v>
-      </c>
-      <c r="D163" t="n">
-        <v>0.5271377285718977</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>84.70373391221581</v>
-      </c>
-      <c r="C164" t="n">
-        <v>5.346848990534859</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0.2556990365499496</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>84.75105141991743</v>
-      </c>
-      <c r="C165" t="n">
-        <v>9.881318245814052</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0.4571976220007168</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>84.90496935204345</v>
-      </c>
-      <c r="C166" t="n">
-        <v>4.539055932118963</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0.5497055525585541</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>84.91554249059594</v>
-      </c>
-      <c r="C167" t="n">
-        <v>12.32708775919937</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0.1276175787326361</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>84.96610894789336</v>
-      </c>
-      <c r="C168" t="n">
-        <v>2.679176616881549</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0.1158903729838151</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>85.14382219399091</v>
-      </c>
-      <c r="C169" t="n">
-        <v>5.076762463342933</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0.3189935456553957</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>85.34236242786686</v>
-      </c>
-      <c r="C170" t="n">
-        <v>3.331170952759966</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.3039472871227726</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>85.65443046008112</v>
-      </c>
-      <c r="C171" t="n">
-        <v>11.91480467972327</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.3983973328602213</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>85.82441636110806</v>
-      </c>
-      <c r="C172" t="n">
-        <v>10.65916270937193</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0.2997144412293882</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>86.04907576955247</v>
-      </c>
-      <c r="C173" t="n">
-        <v>9.902546092934173</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0.3265208686826763</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>86.36251164244587</v>
-      </c>
-      <c r="C174" t="n">
-        <v>5.924112250784257</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0.355324072936953</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>86.92498371066718</v>
-      </c>
-      <c r="C175" t="n">
-        <v>1.397167893098828</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0.08990717928954592</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>87.03921973693583</v>
-      </c>
-      <c r="C176" t="n">
-        <v>3.565301128205844</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0.2270832321273834</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>87.94993657135578</v>
-      </c>
-      <c r="C177" t="n">
-        <v>3.302643322300648</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0.4531312362858037</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>88.59801979407018</v>
-      </c>
-      <c r="C178" t="n">
-        <v>6.686466526610337</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0.2598243628242412</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>89.431972848773</v>
-      </c>
-      <c r="C179" t="n">
-        <v>5.969330725191054</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0.3665753400070437</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>89.91370298484345</v>
-      </c>
-      <c r="C180" t="n">
-        <v>9.015874140208719</v>
-      </c>
-      <c r="D180" t="n">
-        <v>0.3987292667702806</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>89.9928112720698</v>
-      </c>
-      <c r="C181" t="n">
-        <v>8.554479292802634</v>
-      </c>
-      <c r="D181" t="n">
-        <v>0.350529728328727</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>90.69106029212733</v>
-      </c>
-      <c r="C182" t="n">
-        <v>7.819214786067177</v>
-      </c>
-      <c r="D182" t="n">
-        <v>0.2409234591619202</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>90.8240203158</v>
-      </c>
-      <c r="C183" t="n">
-        <v>5.305061509838703</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.1465510175459952</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>90.95628898696975</v>
-      </c>
-      <c r="C184" t="n">
-        <v>4.409105953018883</v>
-      </c>
-      <c r="D184" t="n">
-        <v>0.2974106719564437</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>91.2285768717605</v>
-      </c>
-      <c r="C185" t="n">
-        <v>7.305564704160153</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0.6397035776014856</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>91.83528219391837</v>
-      </c>
-      <c r="C186" t="n">
-        <v>5.808798524052249</v>
-      </c>
-      <c r="D186" t="n">
-        <v>0.1477216368389418</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>92.25278224316459</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1.169131479099937</v>
-      </c>
-      <c r="D187" t="n">
-        <v>0.1970192686756388</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>92.51896939881145</v>
-      </c>
-      <c r="C188" t="n">
-        <v>3.597895291504271</v>
-      </c>
-      <c r="D188" t="n">
-        <v>0.1106593510204933</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>92.95528056699061</v>
-      </c>
-      <c r="C189" t="n">
-        <v>3.380076913211874</v>
-      </c>
-      <c r="D189" t="n">
-        <v>0.4273368224102492</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>93.1890693522939</v>
-      </c>
-      <c r="C190" t="n">
-        <v>2.721302820545612</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0.2030173923058184</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>95.48761980274629</v>
-      </c>
-      <c r="C191" t="n">
-        <v>4.673385710380769</v>
-      </c>
-      <c r="D191" t="n">
-        <v>0.2347198307788547</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>95.84785956104557</v>
-      </c>
-      <c r="C192" t="n">
-        <v>6.644636195760938</v>
-      </c>
-      <c r="D192" t="n">
-        <v>0.3871219524217773</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>96.70735276648385</v>
-      </c>
-      <c r="C193" t="n">
-        <v>10.64648840760521</v>
-      </c>
-      <c r="D193" t="n">
-        <v>0.5050516105492741</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>96.93909345747277</v>
-      </c>
-      <c r="C194" t="n">
-        <v>9.444194559879369</v>
-      </c>
-      <c r="D194" t="n">
-        <v>0.5522873532996362</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>97.91774331191046</v>
-      </c>
-      <c r="C195" t="n">
-        <v>2.620368355817156</v>
-      </c>
-      <c r="D195" t="n">
-        <v>0.2879342021944995</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>99.35338585218489</v>
-      </c>
-      <c r="C196" t="n">
-        <v>5.141712436409165</v>
-      </c>
-      <c r="D196" t="n">
-        <v>0.2253084669520788</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>99.48871967500673</v>
-      </c>
-      <c r="C197" t="n">
-        <v>2.51147664289817</v>
-      </c>
-      <c r="D197" t="n">
-        <v>0.3283094959893666</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>99.54704675089779</v>
-      </c>
-      <c r="C198" t="n">
-        <v>5.432938812197974</v>
-      </c>
-      <c r="D198" t="n">
-        <v>0.2874324903978358</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>99.86101488160206</v>
-      </c>
-      <c r="C199" t="n">
-        <v>7.913272950394012</v>
-      </c>
-      <c r="D199" t="n">
-        <v>0.2072319152410532</v>
+        <v>0.2711728236197924</v>
       </c>
     </row>
   </sheetData>
